--- a/medicine/Enfance/…Et_les_Martiens_invitèrent_les_hommes/…Et_les_Martiens_invitèrent_les_hommes.xlsx
+++ b/medicine/Enfance/…Et_les_Martiens_invitèrent_les_hommes/…Et_les_Martiens_invitèrent_les_hommes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%E2%80%A6Et_les_Martiens_invit%C3%A8rent_les_hommes</t>
+          <t>…Et_les_Martiens_invitèrent_les_hommes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 …Et les Martiens invitèrent les hommes est le sixième roman de la série Les Conquérants de l'impossible écrite par Philippe Ébly. Ce roman est paru pour la première fois en 1974 chez Hachette dans la collection Bibliothèque verte.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%E2%80%A6Et_les_Martiens_invit%C3%A8rent_les_hommes</t>
+          <t>…Et_les_Martiens_invitèrent_les_hommes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Lorenzo a créé un vaisseau spatial dans le but d'explorer la planète Mars. Outre le professeur et une femme médecin, trois aventuriers font partie du voyage : Serge (narrateur du récit), Xolotl et Thibaut. 
 Le voyage se déroule sans incident et les voyageurs atterrissent sur Mars. Grâce à une invention du professeur, on peut marcher sur Mars sans subir le très grand froid qui y règne et sans porter de combinaison spatiale. Les explorateurs font la connaissance des Martiens. Ceux-ci, dotés d'une belle fourrure, sont plus petits que les humains, ils ont une grosse tête apposée sur de longues pattes. Les aventuriers découvrent que les extraterrestres sont sympathiques et que l'on peut échanger avec eux grâce à leurs pouvoirs télépathiques. 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%E2%80%A6Et_les_Martiens_invit%C3%A8rent_les_hommes</t>
+          <t>…Et_les_Martiens_invitèrent_les_hommes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Publication(s) : 1974 chez Hachette (Bibliothèque verte)
 1974 : Hachette, Bibliothèque verte, cartonné, texte original. Illustrations d'Yvon Le Gall, 184 p.  (ISBN 2-01-000107-9)
